--- a/biology/Médecine/Services_psychiatriques_universitaires_de_Berne/Services_psychiatriques_universitaires_de_Berne.xlsx
+++ b/biology/Médecine/Services_psychiatriques_universitaires_de_Berne/Services_psychiatriques_universitaires_de_Berne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Services psychiatriques universitaires de Berne (SPU) (allemand : Universitäre Psychiatrische Dienste Bern, UPD) sont une société à but non lucratif qui exploite des cliniques psychiatriques dans le canton de Berne. Son mandat comprend les soins psychiatriques de base pour les adultes, les enfants et les jeunes dans le canton de Berne.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ensemble des services psychiatriques universitaires de Berne (SPU) est le centre de compétences en psychiatrie et psychothérapie du canton de Berne[1]. Il dispense l'ensemble de la chaîne de soins psychiatriques, depuis le dépistage précoce jusqu'à la prise en charge ambulatoire, semi-hospitalière et hospitalière. Il propose également des services de réhabilitation et de réinsertion des personnes atteintes d'une maladie mentale. En tant qu'hôpital universitaire, le SPU apporte une contribution à la prise en charge spécialisée en psychiatrie ainsi qu'à la formation, à la formation continue, à l'enseignement et à la recherche.
-Familièrement, le nom Die Waldau, qui remonte à l'asile d'aliénés fondé en 1855, est encore utilisé aujourd'hui pour désigner le SPU, en particulier les bâtiments situés dans le quartier du même nom, à la rue Bolligen[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ensemble des services psychiatriques universitaires de Berne (SPU) est le centre de compétences en psychiatrie et psychothérapie du canton de Berne. Il dispense l'ensemble de la chaîne de soins psychiatriques, depuis le dépistage précoce jusqu'à la prise en charge ambulatoire, semi-hospitalière et hospitalière. Il propose également des services de réhabilitation et de réinsertion des personnes atteintes d'une maladie mentale. En tant qu'hôpital universitaire, le SPU apporte une contribution à la prise en charge spécialisée en psychiatrie ainsi qu'à la formation, à la formation continue, à l'enseignement et à la recherche.
+Familièrement, le nom Die Waldau, qui remonte à l'asile d'aliénés fondé en 1855, est encore utilisé aujourd'hui pour désigner le SPU, en particulier les bâtiments situés dans le quartier du même nom, à la rue Bolligen.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SPU Berne se compose des cliniques et directions suivantes :
 Clinique Universitaire de Psychiatrie et de Psychothérapie
@@ -582,9 +598,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1855, le canton de Berne est le premier canton suisse à se doter d'un hôpital psychiatrique universitaire. L'établissement est nommé « Irren-, Heil- und Pflegeanstalt Waldau ». La ville de Berne a construit l'hôpital sur la commune de Bolligen, en zone agricole, à environ 5 km de centre historique de la ville de Berne. À la suite d'une enquête cantonale sur les besoins non couverts en matière de prise en charge de la maladeie mentale et  handicap mental, le bâtiment a été conçu pour recevoir 230 patients. La structure se trouve cependant très rapidement surchargée et le canton se dote de deux hôpitaux psychiatriques publiques supplémentaires, l'un situé à Münsingen (inauguré en 1895) et l'autre à Bellelay (inauguré en 1898)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1855, le canton de Berne est le premier canton suisse à se doter d'un hôpital psychiatrique universitaire. L'établissement est nommé « Irren-, Heil- und Pflegeanstalt Waldau ». La ville de Berne a construit l'hôpital sur la commune de Bolligen, en zone agricole, à environ 5 km de centre historique de la ville de Berne. À la suite d'une enquête cantonale sur les besoins non couverts en matière de prise en charge de la maladeie mentale et  handicap mental, le bâtiment a été conçu pour recevoir 230 patients. La structure se trouve cependant très rapidement surchargée et le canton se dote de deux hôpitaux psychiatriques publiques supplémentaires, l'un situé à Münsingen (inauguré en 1895) et l'autre à Bellelay (inauguré en 1898).
 Les Services psychiatriques universitaires de Berne (SPU) sont nés en 1996 de la fusion de la clinique universitaire de psychiatrie sociale et de la clinique universitaire de psychiatrie ainsi que de l'affiliation de la clinique et de la polyclinique de psychiatrie de l'enfant et de l'adolescent. Aujourd'hui, l'UPD propose une offre complète pour les jeunes et les moins jeunes ainsi que pour les enfants et les jeunes avec plus de 20 sites dans le canton de Berne. À partir du  1er janvier 2017, l'UPD devient une société à but non lucratif.
 </t>
         </is>
@@ -614,7 +632,9 @@
           <t>Patients célèbres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les résidents bien connus de la Waldau étaient l'artiste d'art brut Adolf Wölfli (de 1895 à 1930) et les écrivains Hans Morgenthaler (de) (1925), Robert Walser (de 1929 à 1933) et Friedrich Glauser (de 1934 à 1936). Friedrich Glauser y écrit ses trois premiers romans avec la figure littéraire Wachtmeister Studer (de) : Schlumpf Erwin Mord, Die Fieberkurve et Le Royaume de Matto.
 </t>
@@ -646,6 +666,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -671,7 +693,9 @@
           <t>Musée suisse de la psychiatrie à Berne</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Morgenthaler y est médecin assistant de 1908 à 1910 et médecin-chef de 1913 à 1920. Il a rassemblé des objets et des documents historiques et les a utilisés pour mettre en place une exposition dans deux salles de l'actuelle "Vieille Clinique" (à savoir la clinique construite en 1910-1913), jetant ainsi les bases du Musée suisse de psychiatrie. Il est maintenant situé sur le site de la Bolligenstrasse (Waldau) dans l'ancien "Pfründerhaus" de 1765.
 </t>
@@ -702,7 +726,9 @@
           <t>Direction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Direction
@@ -719,7 +745,7 @@
 2021-2022 : PDG : Alexandre Schmidt
 À partir de 2022 : Présidente du Conseil d'administration : Patricia Kellerhals
 2022 : Président du Directoire a. i. : Dominique Schmid
-2023 : Président-directeur général : Oliver Grossen[4]
+2023 : Président-directeur général : Oliver Grossen
 </t>
         </is>
       </c>
@@ -749,6 +775,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
